--- a/biology/Zoologie/Grue_demoiselle/Grue_demoiselle.xlsx
+++ b/biology/Zoologie/Grue_demoiselle/Grue_demoiselle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grus virgo
 La Grue demoiselle (Grus virgo), également appelée Demoiselle de Numidie, est une espèce de grands échassiers de la famille des Gruidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grue demoiselle est plus petite que la Grue cendrée. Les joues, la gorge, la poitrine et la longue bavette pectorale sont noires, le reste du plumage est gris. Les ailes associent le gris et le noir. Le dessus de la tête gris surplombe le bec vert-olive et orange. Un touffe de longues plumes blanches pend en arrière de l'œil. Les longues pattes sont noires..
 </t>
@@ -543,7 +557,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grue demoiselle craque, glapit, trompette. Son cri, assez proche de celui de la grue cendrée, est très puissant et perceptible de fort loin. Lorsqu'il est porté par le vent, il peut s'entendre à deux kilomètres.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En période de reproduction, c'est surtout une espèce de la steppe eurasienne, de la mer Noire au nord-est de la Chine en passant par le sud de la Russie et la Mongolie, ainsi que des régions semi-arides plus au sud en Asie centrale et localement en Anatolie. 
 En hiver, elle migre en grandes troupes en Asie du sud où elle est un oiseau symbolique. 
@@ -608,7 +626,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grue demoiselle a des mœurs diurnes. 
 Elle est très sociable en dehors de la période de reproduction. 
@@ -644,7 +664,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a une maturité sexuelle assez tardive et ne se reproduit pas avant trois voire quatre ans. En avril-mai, elle construit un nid rudimentaire et peu volumineux à même le sol. En règle générale, les nids ne sont jamais distants de plus d'un kilomètre d'une rivière, d'un lac, d'un marais. Plutôt entre 200 et 500 mètres d'un point d'eau. La ponte est généralement de deux œufs. L'incubation est de 27 à 29 jours et est assurée par les deux parents à tour de rôle. La période de séjour au nid est d'environ 55 à 65 jours, ce qui peut paraître court pour des grues. À la fin de l'été, les jeunes prennent leur envol mais ils restent encore au sein de la cellule familiale.
 </t>
@@ -675,7 +697,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Son alimentation est surtout d'origine végétale : graines et pousses de tout ordre qu'elle trouve dans les pâtures et les champs. Cependant, au printemps et en été, elle améliore considérablement son régime en consommant des insectes et des petits invertébrés : coléoptères, scarabées, papillons et fourmis.
 </t>
@@ -706,7 +730,9 @@
           <t>Mythologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les Égyptiens, les grues allaient combattre, aux sources du Nil, les pygmées, 'sortes de petits hommes, dit Aristote, montés sur de petits chevaux, et qui habitent des cavernes'.
 D'après les Grecs, les grues se mettent un caillou dans le bec lorsqu'elles traversent le mont Taurus pour s'obliger à rester muettes, et ainsi éviter d'éveiller l'attention des aigles.
